--- a/fastqFiles/fastq_J.PLAGGENBERG_01.22.20.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_01.22.20.xlsx
@@ -70,172 +70,172 @@
     <t xml:space="preserve">spikein </t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_Large/Brent_01_GTAC1_SIC_Index10_TGAGGTTATC_GCTTCTGT_S59_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_02_GTAC2_SIC_Index10_GCTTAGAATC_GCTTCTGT_S98_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_03_GTAC3_SIC_Index10_ATGACAGATC_GCTTCTGT_S70_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_04_GTAC4_SIC_Index10_CACCTCCATC_GCTTCTGT_S71_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_05_GTAC5_SIC_Index10_ATCGAGCATC_GCTTCTGT_S72_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_06_GTAC6_SIC_Index10_TACTCTAATC_GCTTCTGT_S60_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_07_GTAC7_SIC_Index10_AGACTGAATC_GCTTCTGT_S61_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_08_GTAC8_SIC_Index10_CTTGGAAATC_GCTTCTGT_S73_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_09_GTAC9_SIC_Index10_CCGATTAATC_GCTTCTGT_S74_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_10_GTAC10_SIC_Index10_GGCAGCGATC_GCTTCTGT_S75_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_11_GTAC11_SIC_Index10_CCATCATATC_GCTTCTGT_S99_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_12_GTAC12_SIC_Index10_TAACAAGATC_GCTTCTGT_S100_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_13_GTAC13_SIC_Index10_GAGGCGTATC_GCTTCTGT_S101_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_14_GTAC14_SIC_Index10_TTTAACTATC_GCTTCTGT_S76_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_15_GTAC15_SIC_Index10_GGTCCTCATC_GCTTCTGT_S62_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_16_GTAC16_SIC_Index10_CGGTGGCATC_GCTTCTGT_S102_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_17_GTAC17_SIC_Index10_ACTGTCGATC_GCTTCTGT_S77_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_18_GTAC18_SIC_Index10_GTATTTGATC_GCTTCTGT_S78_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_19_GTAC19_SIC_Index10_GAGTACGATC_GCTTCTGT_S103_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_20_GTAC20_SIC_Index10_ACAGATAATC_GCTTCTGT_S79_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_21_GTAC21_SIC_Index10_CTCAATGATC_GCTTCTGT_S80_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_22_GTAC22_SIC_Index10_AAATGCAATC_GCTTCTGT_S63_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_23_GTAC23_SIC_Index10_ACGCGGGATC_GCTTCTGT_S81_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_24_GTAC24_SIC_Index10_GGAGTCCATC_GCTTCTGT_S82_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_25_GTAC25_SIC_Index10_CGTCGCTATC_GCTTCTGT_S83_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_26_GTAC26_SIC_Index10_TCAACTGATC_GCTTCTGT_S84_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_27_GTAC27_SIC_Index10_TGTTTGTATC_GCTTCTGT_S64_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_28_GTAC28_SIC_Index10_TACATGGATC_GCTTCTGT_S65_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_29_GTAC29_SIC_Index10_GTTCTCAATC_GCTTCTGT_S85_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_30_GTAC30_SIC_Index10_CTGGTGGATC_GCTTCTGT_S86_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_31_GTAC31_SIC_Index10_TGCCCATATC_GCTTCTGT_S104_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_32_GTAC32_SIC_Index10_AAACCTTATC_GCTTCTGT_S87_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_33_GTAC33_SIC_Index10_ACCATACATC_GCTTCTGT_S88_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_34_GTAC34_SIC_Index10_AATACGCATC_GCTTCTGT_S105_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_35_GTAC35_SIC_Index10_CGCTACAATC_GCTTCTGT_S66_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_36_GTAC36_SIC_Index10_TGGCATAATC_GCTTCTGT_S67_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_37_GTAC37_SIC_Index10_TTTTGTCATC_GCTTCTGT_S106_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_38_GTAC38_SIC_Index10_ACCCACTATC_GCTTCTGT_S89_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_39_GTAC39_SIC_Index10_CCGGACCATC_GCTTCTGT_S107_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_40_GTAC40_SIC_Index10_GTACGGCATC_GCTTCTGT_S90_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_41_GTAC41_SIC_Index10_TTGCCCCATC_GCTTCTGT_S91_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_42_GTAC42_SIC_Index10_ACTCCAAATC_GCTTCTGT_S92_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_43_GTAC43_SIC_Index10_TGTGCCAATC_GCTTCTGT_S108_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_44_GTAC44_SIC_Index10_AACGGAGATC_GCTTCTGT_S109_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_45_GTAC45_SIC_Index10_GATAGTTATC_GCTTCTGT_S93_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_46_GTAC46_SIC_Index10_GGTGAATATC_GCTTCTGT_S94_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_47_GTAC47_SIC_Index10_ATGTTCTATC_GCTTCTGT_S110_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_48_GTAC48_SIC_Index10_GTAAAAAATC_GCTTCTGT_S111_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_49_GTAC49_SIC_Index10_GTCTGATATC_GCTTCTGT_S112_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_50_GTAC50_SIC_Index10_CAATATCATC_GCTTCTGT_S95_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_51_GTAC51_SIC_Index10_CTCCCGAATC_GCTTCTGT_S113_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_52_GTAC52_SIC_Index10_GCCGTTTATC_GCTTCTGT_S96_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Medium/Brent_53_GTAC53_SIC_Index10_TAGGTAAATC_GCTTCTGT_S97_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_54_GTAC54_SIC_Index10_TCGAGATATC_GCTTCTGT_S68_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Large/Brent_55_GTAC55_SIC_Index10_CATTTAGATC_GCTTCTGT_S69_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_Small/Brent_56_GTAC56_SIC_Index10_TCCGGGAATC_GCTTCTGT_S114_L001_R1_001.fastq.gz</t>
+    <t xml:space="preserve">Brent_01_GTAC1_SIC_Index10_TGAGGTTATC_GCTTCTGT_S59_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_02_GTAC2_SIC_Index10_GCTTAGAATC_GCTTCTGT_S98_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_03_GTAC3_SIC_Index10_ATGACAGATC_GCTTCTGT_S70_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_04_GTAC4_SIC_Index10_CACCTCCATC_GCTTCTGT_S71_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_05_GTAC5_SIC_Index10_ATCGAGCATC_GCTTCTGT_S72_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_06_GTAC6_SIC_Index10_TACTCTAATC_GCTTCTGT_S60_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_07_GTAC7_SIC_Index10_AGACTGAATC_GCTTCTGT_S61_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_08_GTAC8_SIC_Index10_CTTGGAAATC_GCTTCTGT_S73_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_09_GTAC9_SIC_Index10_CCGATTAATC_GCTTCTGT_S74_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_10_GTAC10_SIC_Index10_GGCAGCGATC_GCTTCTGT_S75_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_11_GTAC11_SIC_Index10_CCATCATATC_GCTTCTGT_S99_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_12_GTAC12_SIC_Index10_TAACAAGATC_GCTTCTGT_S100_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_13_GTAC13_SIC_Index10_GAGGCGTATC_GCTTCTGT_S101_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_14_GTAC14_SIC_Index10_TTTAACTATC_GCTTCTGT_S76_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_15_GTAC15_SIC_Index10_GGTCCTCATC_GCTTCTGT_S62_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_16_GTAC16_SIC_Index10_CGGTGGCATC_GCTTCTGT_S102_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_17_GTAC17_SIC_Index10_ACTGTCGATC_GCTTCTGT_S77_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_18_GTAC18_SIC_Index10_GTATTTGATC_GCTTCTGT_S78_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_19_GTAC19_SIC_Index10_GAGTACGATC_GCTTCTGT_S103_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_20_GTAC20_SIC_Index10_ACAGATAATC_GCTTCTGT_S79_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_21_GTAC21_SIC_Index10_CTCAATGATC_GCTTCTGT_S80_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_22_GTAC22_SIC_Index10_AAATGCAATC_GCTTCTGT_S63_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_23_GTAC23_SIC_Index10_ACGCGGGATC_GCTTCTGT_S81_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_24_GTAC24_SIC_Index10_GGAGTCCATC_GCTTCTGT_S82_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_25_GTAC25_SIC_Index10_CGTCGCTATC_GCTTCTGT_S83_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_26_GTAC26_SIC_Index10_TCAACTGATC_GCTTCTGT_S84_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_27_GTAC27_SIC_Index10_TGTTTGTATC_GCTTCTGT_S64_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_28_GTAC28_SIC_Index10_TACATGGATC_GCTTCTGT_S65_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_29_GTAC29_SIC_Index10_GTTCTCAATC_GCTTCTGT_S85_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_30_GTAC30_SIC_Index10_CTGGTGGATC_GCTTCTGT_S86_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_31_GTAC31_SIC_Index10_TGCCCATATC_GCTTCTGT_S104_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_32_GTAC32_SIC_Index10_AAACCTTATC_GCTTCTGT_S87_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_33_GTAC33_SIC_Index10_ACCATACATC_GCTTCTGT_S88_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_34_GTAC34_SIC_Index10_AATACGCATC_GCTTCTGT_S105_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_35_GTAC35_SIC_Index10_CGCTACAATC_GCTTCTGT_S66_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_36_GTAC36_SIC_Index10_TGGCATAATC_GCTTCTGT_S67_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_37_GTAC37_SIC_Index10_TTTTGTCATC_GCTTCTGT_S106_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_38_GTAC38_SIC_Index10_ACCCACTATC_GCTTCTGT_S89_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_39_GTAC39_SIC_Index10_CCGGACCATC_GCTTCTGT_S107_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_40_GTAC40_SIC_Index10_GTACGGCATC_GCTTCTGT_S90_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_41_GTAC41_SIC_Index10_TTGCCCCATC_GCTTCTGT_S91_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_42_GTAC42_SIC_Index10_ACTCCAAATC_GCTTCTGT_S92_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_43_GTAC43_SIC_Index10_TGTGCCAATC_GCTTCTGT_S108_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_44_GTAC44_SIC_Index10_AACGGAGATC_GCTTCTGT_S109_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_45_GTAC45_SIC_Index10_GATAGTTATC_GCTTCTGT_S93_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_46_GTAC46_SIC_Index10_GGTGAATATC_GCTTCTGT_S94_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_47_GTAC47_SIC_Index10_ATGTTCTATC_GCTTCTGT_S110_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_48_GTAC48_SIC_Index10_GTAAAAAATC_GCTTCTGT_S111_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_49_GTAC49_SIC_Index10_GTCTGATATC_GCTTCTGT_S112_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_50_GTAC50_SIC_Index10_CAATATCATC_GCTTCTGT_S95_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_51_GTAC51_SIC_Index10_CTCCCGAATC_GCTTCTGT_S113_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_52_GTAC52_SIC_Index10_GCCGTTTATC_GCTTCTGT_S96_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_53_GTAC53_SIC_Index10_TAGGTAAATC_GCTTCTGT_S97_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_54_GTAC54_SIC_Index10_TCGAGATATC_GCTTCTGT_S68_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_55_GTAC55_SIC_Index10_CATTTAGATC_GCTTCTGT_S69_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_56_GTAC56_SIC_Index10_TCCGGGAATC_GCTTCTGT_S114_L001_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,10 +394,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L40" activeCellId="0" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,7 +765,7 @@
       <c r="I7" s="9" t="n">
         <v>13.4</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="9" t="n">
@@ -804,7 +800,7 @@
       <c r="I8" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="9" t="n">
@@ -1084,7 +1080,7 @@
       <c r="I16" s="9" t="n">
         <v>14.8</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="9" t="n">
@@ -1329,7 +1325,7 @@
       <c r="I23" s="9" t="n">
         <v>14.2</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="9" t="n">
@@ -1504,7 +1500,7 @@
       <c r="I28" s="9" t="n">
         <v>12.3</v>
       </c>
-      <c r="J28" s="11" t="n">
+      <c r="J28" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="9" t="n">
@@ -1539,7 +1535,7 @@
       <c r="I29" s="9" t="n">
         <v>13.9</v>
       </c>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="9" t="n">
@@ -1784,7 +1780,7 @@
       <c r="I36" s="9" t="n">
         <v>40.7</v>
       </c>
-      <c r="J36" s="11" t="n">
+      <c r="J36" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="9" t="n">
@@ -1819,7 +1815,7 @@
       <c r="I37" s="9" t="n">
         <v>12.5</v>
       </c>
-      <c r="J37" s="11" t="n">
+      <c r="J37" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="9" t="n">
@@ -2166,7 +2162,7 @@
       <c r="H47" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="12" t="n">
+      <c r="I47" s="11" t="n">
         <v>9.19</v>
       </c>
       <c r="J47" s="10" t="n">
@@ -2201,7 +2197,7 @@
       <c r="H48" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="12" t="n">
+      <c r="I48" s="11" t="n">
         <v>0.597</v>
       </c>
       <c r="J48" s="10" t="n">
@@ -2236,7 +2232,7 @@
       <c r="H49" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="12" t="n">
+      <c r="I49" s="11" t="n">
         <v>0.399</v>
       </c>
       <c r="J49" s="10" t="n">
@@ -2271,7 +2267,7 @@
       <c r="H50" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="12" t="n">
+      <c r="I50" s="11" t="n">
         <v>1.81</v>
       </c>
       <c r="J50" s="10" t="n">
@@ -2306,7 +2302,7 @@
       <c r="H51" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="12" t="n">
+      <c r="I51" s="11" t="n">
         <v>3.88</v>
       </c>
       <c r="J51" s="10" t="n">
@@ -2341,7 +2337,7 @@
       <c r="H52" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="12" t="n">
+      <c r="I52" s="11" t="n">
         <v>2.31</v>
       </c>
       <c r="J52" s="10" t="n">
@@ -2376,7 +2372,7 @@
       <c r="H53" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="13" t="n">
+      <c r="I53" s="12" t="n">
         <v>4.12</v>
       </c>
       <c r="J53" s="10" t="n">
@@ -2411,7 +2407,7 @@
       <c r="H54" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="12" t="n">
+      <c r="I54" s="11" t="n">
         <v>3.92</v>
       </c>
       <c r="J54" s="10" t="n">
@@ -2446,10 +2442,10 @@
       <c r="H55" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="12" t="n">
+      <c r="I55" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="J55" s="11" t="n">
+      <c r="J55" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K55" s="9" t="n">
@@ -2481,10 +2477,10 @@
       <c r="H56" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="12" t="n">
+      <c r="I56" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="J56" s="11" t="n">
+      <c r="J56" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="9" t="n">
@@ -2516,7 +2512,7 @@
       <c r="H57" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="12" t="n">
+      <c r="I57" s="11" t="n">
         <v>0.811</v>
       </c>
       <c r="J57" s="10" t="n">

--- a/fastqFiles/fastq_J.PLAGGENBERG_01.22.20.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_01.22.20.xlsx
@@ -242,13 +242,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="5">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -270,43 +269,10 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -318,12 +284,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -352,57 +325,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -414,66 +343,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF222222"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -482,88 +351,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L40" activeCellId="0" sqref="L40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="M:Q"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="90.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>4157</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="D2" s="0" t="n">
+        <v>4157</v>
+      </c>
       <c r="F2" s="0" t="s">
         <v>14</v>
       </c>
@@ -576,41 +430,27 @@
       <c r="I2" s="0" t="n">
         <v>14.6</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>7236</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -622,30 +462,30 @@
       <c r="H3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="0" t="n">
         <v>2.96</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="0" t="n">
         <v>3.37837837837838</v>
       </c>
-      <c r="K3" s="9" t="n">
+      <c r="K3" s="0" t="n">
         <v>15778</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -657,30 +497,30 @@
       <c r="H4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="0" t="n">
         <v>3.16</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="0" t="n">
         <v>3.16455696202532</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="0" t="n">
         <v>28002</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -692,30 +532,30 @@
       <c r="H5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="0" t="n">
         <v>5.92</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="0" t="n">
         <v>1.68918918918919</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="0" t="n">
         <v>7686</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F6" s="0" t="s">
@@ -727,30 +567,30 @@
       <c r="H6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="0" t="n">
         <v>9.38</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="0" t="n">
         <v>1.06609808102345</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="0" t="n">
         <v>9625</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F7" s="0" t="s">
@@ -762,30 +602,30 @@
       <c r="H7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="0" t="n">
         <v>13.4</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="0" t="n">
         <v>8361</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F8" s="0" t="s">
@@ -797,30 +637,30 @@
       <c r="H8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="9" t="n">
+      <c r="I8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="9" t="n">
+      <c r="K8" s="0" t="n">
         <v>5711</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F9" s="0" t="s">
@@ -832,30 +672,30 @@
       <c r="H9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="0" t="n">
         <v>9.09</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="0" t="n">
         <v>1.1001100110011</v>
       </c>
-      <c r="K9" s="9" t="n">
+      <c r="K9" s="0" t="n">
         <v>11980</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F10" s="0" t="s">
@@ -867,30 +707,30 @@
       <c r="H10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="0" t="n">
         <v>5.37</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="0" t="n">
         <v>1.86219739292365</v>
       </c>
-      <c r="K10" s="9" t="n">
+      <c r="K10" s="0" t="n">
         <v>12598</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F11" s="0" t="s">
@@ -902,30 +742,30 @@
       <c r="H11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="0" t="n">
         <v>3.98</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="0" t="n">
         <v>2.51256281407035</v>
       </c>
-      <c r="K11" s="9" t="n">
+      <c r="K11" s="0" t="n">
         <v>8842</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="n">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F12" s="0" t="s">
@@ -937,30 +777,30 @@
       <c r="H12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="0" t="n">
         <v>1.86</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K12" s="9" t="n">
+      <c r="K12" s="0" t="n">
         <v>13009</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F13" s="0" t="s">
@@ -972,30 +812,30 @@
       <c r="H13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="0" t="n">
         <v>2.45</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="0" t="n">
         <v>4.08163265306122</v>
       </c>
-      <c r="K13" s="9" t="n">
+      <c r="K13" s="0" t="n">
         <v>10937</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F14" s="0" t="s">
@@ -1007,30 +847,30 @@
       <c r="H14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="0" t="n">
         <v>2.08</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="0" t="n">
         <v>4.80769230769231</v>
       </c>
-      <c r="K14" s="9" t="n">
+      <c r="K14" s="0" t="n">
         <v>11211</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F15" s="0" t="s">
@@ -1042,30 +882,30 @@
       <c r="H15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="0" t="n">
         <v>5.44</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="0" t="n">
         <v>1.83823529411765</v>
       </c>
-      <c r="K15" s="9" t="n">
+      <c r="K15" s="0" t="n">
         <v>9534</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F16" s="0" t="s">
@@ -1077,30 +917,30 @@
       <c r="H16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="I16" s="0" t="n">
         <v>14.8</v>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="J16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="9" t="n">
+      <c r="K16" s="0" t="n">
         <v>11215</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F17" s="0" t="s">
@@ -1112,30 +952,30 @@
       <c r="H17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="0" t="n">
         <v>1.85</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="9" t="n">
+      <c r="K17" s="0" t="n">
         <v>8054</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F18" s="0" t="s">
@@ -1147,30 +987,30 @@
       <c r="H18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="0" t="n">
         <v>4.24</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="0" t="n">
         <v>2.35849056603774</v>
       </c>
-      <c r="K18" s="9" t="n">
+      <c r="K18" s="0" t="n">
         <v>10538</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F19" s="0" t="s">
@@ -1182,30 +1022,30 @@
       <c r="H19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="0" t="n">
         <v>4.33</v>
       </c>
-      <c r="J19" s="10" t="n">
+      <c r="J19" s="0" t="n">
         <v>2.3094688221709</v>
       </c>
-      <c r="K19" s="9" t="n">
+      <c r="K19" s="0" t="n">
         <v>11388</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F20" s="0" t="s">
@@ -1217,30 +1057,30 @@
       <c r="H20" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K20" s="9" t="n">
+      <c r="K20" s="0" t="n">
         <v>8589</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F21" s="0" t="s">
@@ -1252,30 +1092,30 @@
       <c r="H21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="0" t="n">
         <v>3.19</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="0" t="n">
         <v>3.13479623824451</v>
       </c>
-      <c r="K21" s="9" t="n">
+      <c r="K21" s="0" t="n">
         <v>14029</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F22" s="0" t="s">
@@ -1287,30 +1127,30 @@
       <c r="H22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="0" t="n">
         <v>7.04</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="0" t="n">
         <v>1.42045454545455</v>
       </c>
-      <c r="K22" s="9" t="n">
+      <c r="K22" s="0" t="n">
         <v>9531</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F23" s="0" t="s">
@@ -1322,30 +1162,30 @@
       <c r="H23" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="0" t="n">
         <v>14.2</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="9" t="n">
+      <c r="K23" s="0" t="n">
         <v>12481</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F24" s="0" t="s">
@@ -1357,30 +1197,30 @@
       <c r="H24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="I24" s="0" t="n">
         <v>9.89</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="0" t="n">
         <v>1.01112234580384</v>
       </c>
-      <c r="K24" s="9" t="n">
+      <c r="K24" s="0" t="n">
         <v>10132</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F25" s="0" t="s">
@@ -1392,30 +1232,30 @@
       <c r="H25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="0" t="n">
         <v>5.43</v>
       </c>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="0" t="n">
         <v>1.84162062615101</v>
       </c>
-      <c r="K25" s="9" t="n">
+      <c r="K25" s="0" t="n">
         <v>15276</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F26" s="0" t="s">
@@ -1427,30 +1267,30 @@
       <c r="H26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="9" t="n">
+      <c r="I26" s="0" t="n">
         <v>9.28</v>
       </c>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="0" t="n">
         <v>1.07758620689655</v>
       </c>
-      <c r="K26" s="9" t="n">
+      <c r="K26" s="0" t="n">
         <v>13287</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="5" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F27" s="0" t="s">
@@ -1462,30 +1302,30 @@
       <c r="H27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="9" t="n">
+      <c r="I27" s="0" t="n">
         <v>5.36</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="0" t="n">
         <v>1.86567164179104</v>
       </c>
-      <c r="K27" s="9" t="n">
+      <c r="K27" s="0" t="n">
         <v>13205</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F28" s="0" t="s">
@@ -1497,30 +1337,30 @@
       <c r="H28" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="I28" s="0" t="n">
         <v>12.3</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="9" t="n">
+      <c r="K28" s="0" t="n">
         <v>16035</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F29" s="0" t="s">
@@ -1532,30 +1372,30 @@
       <c r="H29" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="9" t="n">
+      <c r="I29" s="0" t="n">
         <v>13.9</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K29" s="9" t="n">
+      <c r="K29" s="0" t="n">
         <v>13613</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F30" s="0" t="s">
@@ -1567,30 +1407,30 @@
       <c r="H30" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="9" t="n">
+      <c r="I30" s="0" t="n">
         <v>6.25</v>
       </c>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="K30" s="9" t="n">
+      <c r="K30" s="0" t="n">
         <v>15620</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F31" s="0" t="s">
@@ -1602,30 +1442,30 @@
       <c r="H31" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="9" t="n">
+      <c r="I31" s="0" t="n">
         <v>4.55</v>
       </c>
-      <c r="J31" s="10" t="n">
+      <c r="J31" s="0" t="n">
         <v>2.1978021978022</v>
       </c>
-      <c r="K31" s="9" t="n">
+      <c r="K31" s="0" t="n">
         <v>13484</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="5" t="n">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F32" s="0" t="s">
@@ -1637,30 +1477,30 @@
       <c r="H32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="9" t="n">
+      <c r="I32" s="0" t="n">
         <v>2.55</v>
       </c>
-      <c r="J32" s="10" t="n">
+      <c r="J32" s="0" t="n">
         <v>3.92156862745098</v>
       </c>
-      <c r="K32" s="9" t="n">
+      <c r="K32" s="0" t="n">
         <v>32338</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F33" s="0" t="s">
@@ -1672,30 +1512,30 @@
       <c r="H33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="9" t="n">
+      <c r="I33" s="0" t="n">
         <v>3.27</v>
       </c>
-      <c r="J33" s="10" t="n">
+      <c r="J33" s="0" t="n">
         <v>3.05810397553517</v>
       </c>
-      <c r="K33" s="9" t="n">
+      <c r="K33" s="0" t="n">
         <v>17815</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F34" s="0" t="s">
@@ -1707,30 +1547,30 @@
       <c r="H34" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="9" t="n">
+      <c r="I34" s="0" t="n">
         <v>9.06</v>
       </c>
-      <c r="J34" s="10" t="n">
+      <c r="J34" s="0" t="n">
         <v>1.1037527593819</v>
       </c>
-      <c r="K34" s="9" t="n">
+      <c r="K34" s="0" t="n">
         <v>13049</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F35" s="0" t="s">
@@ -1742,30 +1582,30 @@
       <c r="H35" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="I35" s="0" t="n">
         <v>1.06</v>
       </c>
-      <c r="J35" s="10" t="n">
+      <c r="J35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K35" s="9" t="n">
+      <c r="K35" s="0" t="n">
         <v>26370</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F36" s="0" t="s">
@@ -1777,30 +1617,30 @@
       <c r="H36" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="9" t="n">
+      <c r="I36" s="0" t="n">
         <v>40.7</v>
       </c>
-      <c r="J36" s="9" t="n">
+      <c r="J36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="9" t="n">
+      <c r="K36" s="0" t="n">
         <v>1756</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="5" t="n">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F37" s="0" t="s">
@@ -1812,30 +1652,30 @@
       <c r="H37" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="9" t="n">
+      <c r="I37" s="0" t="n">
         <v>12.5</v>
       </c>
-      <c r="J37" s="9" t="n">
+      <c r="J37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="9" t="n">
+      <c r="K37" s="0" t="n">
         <v>12556</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F38" s="0" t="s">
@@ -1847,30 +1687,30 @@
       <c r="H38" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I38" s="0" t="n">
         <v>2.21</v>
       </c>
-      <c r="J38" s="10" t="n">
+      <c r="J38" s="0" t="n">
         <v>4.52488687782805</v>
       </c>
-      <c r="K38" s="9" t="n">
+      <c r="K38" s="0" t="n">
         <v>12743</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F39" s="0" t="s">
@@ -1882,30 +1722,30 @@
       <c r="H39" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="9" t="n">
+      <c r="I39" s="0" t="n">
         <v>4.84</v>
       </c>
-      <c r="J39" s="10" t="n">
+      <c r="J39" s="0" t="n">
         <v>2.06611570247934</v>
       </c>
-      <c r="K39" s="9" t="n">
+      <c r="K39" s="0" t="n">
         <v>10655</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F40" s="0" t="s">
@@ -1917,30 +1757,30 @@
       <c r="H40" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="9" t="n">
+      <c r="I40" s="0" t="n">
         <v>0.693</v>
       </c>
-      <c r="J40" s="10" t="n">
+      <c r="J40" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K40" s="9" t="n">
+      <c r="K40" s="0" t="n">
         <v>3614</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F41" s="0" t="s">
@@ -1952,30 +1792,30 @@
       <c r="H41" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="9" t="n">
+      <c r="I41" s="0" t="n">
         <v>3.18</v>
       </c>
-      <c r="J41" s="10" t="n">
+      <c r="J41" s="0" t="n">
         <v>3.14465408805031</v>
       </c>
-      <c r="K41" s="9" t="n">
+      <c r="K41" s="0" t="n">
         <v>4344</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="5" t="n">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F42" s="0" t="s">
@@ -1987,30 +1827,30 @@
       <c r="H42" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="0" t="n">
         <v>3.47</v>
       </c>
-      <c r="J42" s="10" t="n">
+      <c r="J42" s="0" t="n">
         <v>2.88184438040346</v>
       </c>
-      <c r="K42" s="9" t="n">
+      <c r="K42" s="0" t="n">
         <v>10628</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F43" s="0" t="s">
@@ -2022,30 +1862,30 @@
       <c r="H43" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="9" t="n">
+      <c r="I43" s="0" t="n">
         <v>5.24</v>
       </c>
-      <c r="J43" s="10" t="n">
+      <c r="J43" s="0" t="n">
         <v>1.90839694656489</v>
       </c>
-      <c r="K43" s="9" t="n">
+      <c r="K43" s="0" t="n">
         <v>9865</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F44" s="0" t="s">
@@ -2057,30 +1897,30 @@
       <c r="H44" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="9" t="n">
+      <c r="I44" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="J44" s="10" t="n">
+      <c r="J44" s="0" t="n">
         <v>3.64963503649635</v>
       </c>
-      <c r="K44" s="9" t="n">
+      <c r="K44" s="0" t="n">
         <v>11269</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F45" s="0" t="s">
@@ -2092,30 +1932,30 @@
       <c r="H45" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="9" t="n">
+      <c r="I45" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="J45" s="10" t="n">
+      <c r="J45" s="0" t="n">
         <v>4.76190476190476</v>
       </c>
-      <c r="K45" s="9" t="n">
+      <c r="K45" s="0" t="n">
         <v>13523</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F46" s="0" t="s">
@@ -2127,30 +1967,30 @@
       <c r="H46" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="9" t="n">
+      <c r="I46" s="0" t="n">
         <v>5.08</v>
       </c>
-      <c r="J46" s="10" t="n">
+      <c r="J46" s="0" t="n">
         <v>1.96850393700787</v>
       </c>
-      <c r="K46" s="9" t="n">
+      <c r="K46" s="0" t="n">
         <v>11076</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="5" t="n">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F47" s="0" t="s">
@@ -2162,30 +2002,30 @@
       <c r="H47" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="11" t="n">
+      <c r="I47" s="0" t="n">
         <v>9.19</v>
       </c>
-      <c r="J47" s="10" t="n">
+      <c r="J47" s="0" t="n">
         <v>1.08813928182807</v>
       </c>
-      <c r="K47" s="9" t="n">
+      <c r="K47" s="0" t="n">
         <v>11816</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F48" s="0" t="s">
@@ -2197,30 +2037,30 @@
       <c r="H48" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="11" t="n">
+      <c r="I48" s="0" t="n">
         <v>0.597</v>
       </c>
-      <c r="J48" s="10" t="n">
+      <c r="J48" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K48" s="9" t="n">
+      <c r="K48" s="0" t="n">
         <v>5270</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F49" s="0" t="s">
@@ -2232,30 +2072,30 @@
       <c r="H49" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="11" t="n">
+      <c r="I49" s="0" t="n">
         <v>0.399</v>
       </c>
-      <c r="J49" s="10" t="n">
+      <c r="J49" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K49" s="9" t="n">
+      <c r="K49" s="0" t="n">
         <v>2302</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F50" s="0" t="s">
@@ -2267,30 +2107,30 @@
       <c r="H50" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="11" t="n">
+      <c r="I50" s="0" t="n">
         <v>1.81</v>
       </c>
-      <c r="J50" s="10" t="n">
+      <c r="J50" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K50" s="9" t="n">
+      <c r="K50" s="0" t="n">
         <v>25322</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F51" s="0" t="s">
@@ -2302,30 +2142,30 @@
       <c r="H51" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="I51" s="0" t="n">
         <v>3.88</v>
       </c>
-      <c r="J51" s="10" t="n">
+      <c r="J51" s="0" t="n">
         <v>2.57731958762887</v>
       </c>
-      <c r="K51" s="9" t="n">
+      <c r="K51" s="0" t="n">
         <v>14446</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="5" t="n">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F52" s="0" t="s">
@@ -2337,30 +2177,30 @@
       <c r="H52" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="11" t="n">
+      <c r="I52" s="0" t="n">
         <v>2.31</v>
       </c>
-      <c r="J52" s="10" t="n">
+      <c r="J52" s="0" t="n">
         <v>4.32900432900433</v>
       </c>
-      <c r="K52" s="9" t="n">
+      <c r="K52" s="0" t="n">
         <v>11031</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F53" s="0" t="s">
@@ -2372,30 +2212,30 @@
       <c r="H53" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="12" t="n">
+      <c r="I53" s="0" t="n">
         <v>4.12</v>
       </c>
-      <c r="J53" s="10" t="n">
+      <c r="J53" s="0" t="n">
         <v>2.43</v>
       </c>
-      <c r="K53" s="9" t="n">
+      <c r="K53" s="0" t="n">
         <v>1424</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F54" s="0" t="s">
@@ -2407,30 +2247,30 @@
       <c r="H54" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="11" t="n">
+      <c r="I54" s="0" t="n">
         <v>3.92</v>
       </c>
-      <c r="J54" s="10" t="n">
+      <c r="J54" s="0" t="n">
         <v>2.55102040816327</v>
       </c>
-      <c r="K54" s="9" t="n">
+      <c r="K54" s="0" t="n">
         <v>11115</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F55" s="0" t="s">
@@ -2442,30 +2282,30 @@
       <c r="H55" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="11" t="n">
+      <c r="I55" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="J55" s="9" t="n">
+      <c r="J55" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K55" s="9" t="n">
+      <c r="K55" s="0" t="n">
         <v>12619</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="L55" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F56" s="0" t="s">
@@ -2477,30 +2317,30 @@
       <c r="H56" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="11" t="n">
+      <c r="I56" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="J56" s="9" t="n">
+      <c r="J56" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K56" s="9" t="n">
+      <c r="K56" s="0" t="n">
         <v>1004</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="L56" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="5" t="n">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="D57" s="6" t="n">
+      <c r="D57" s="0" t="n">
         <v>4157</v>
       </c>
       <c r="F57" s="0" t="s">
@@ -2512,22 +2352,22 @@
       <c r="H57" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="11" t="n">
+      <c r="I57" s="0" t="n">
         <v>0.811</v>
       </c>
-      <c r="J57" s="10" t="n">
+      <c r="J57" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K57" s="9" t="n">
+      <c r="K57" s="0" t="n">
         <v>11118</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="0" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
